--- a/卒業論文/2012/久保孝樹/資料/コピーリポジトリリストkubo.xlsx
+++ b/卒業論文/2012/久保孝樹/資料/コピーリポジトリリストkubo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="132">
   <si>
     <t>jquery/jquery</t>
   </si>
@@ -540,6 +540,10 @@
   </si>
   <si>
     <t>https://github.com/resque/resque</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adobe/brackets</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1569,7 +1573,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1579,133 +1583,157 @@
     <col min="4" max="4" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D1">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>606</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>95</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>49</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -1718,313 +1746,376 @@
       <c r="D10">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>102</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>207</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>133</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>146</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>49</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>141</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>144</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>66</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>129</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>278</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="D24">
         <v>171</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>130</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>251</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>290</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
         <v>11</v>
       </c>
-      <c r="D12">
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>216</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31">
+        <v>26</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14">
+      <c r="C32" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D32">
         <v>28</v>
       </c>
-      <c r="D23">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32">
-        <v>8</v>
+      <c r="E32">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -2032,13 +2123,16 @@
         <v>102</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33">
-        <v>29</v>
+        <v>214</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -2046,13 +2140,16 @@
         <v>102</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34">
-        <v>214</v>
+        <v>29</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -2060,13 +2157,16 @@
         <v>102</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>129</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -2074,13 +2174,16 @@
         <v>102</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D36">
-        <v>28</v>
+        <v>114</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -2088,58 +2191,61 @@
         <v>102</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D37">
-        <v>216</v>
-      </c>
-      <c r="E37" t="s">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:E37">
+    <sortCondition ref="C37"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="B8" r:id="rId8"/>
-    <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B21" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="B26" r:id="rId7"/>
+    <hyperlink ref="B1" r:id="rId8"/>
+    <hyperlink ref="B23" r:id="rId9"/>
     <hyperlink ref="B10" r:id="rId10"/>
-    <hyperlink ref="B11" r:id="rId11"/>
-    <hyperlink ref="B12" r:id="rId12"/>
-    <hyperlink ref="B13" r:id="rId13"/>
-    <hyperlink ref="B14" r:id="rId14"/>
-    <hyperlink ref="B15" r:id="rId15"/>
-    <hyperlink ref="B16" r:id="rId16"/>
-    <hyperlink ref="B17" r:id="rId17"/>
-    <hyperlink ref="B18" r:id="rId18"/>
-    <hyperlink ref="B19" r:id="rId19"/>
-    <hyperlink ref="B20" r:id="rId20"/>
-    <hyperlink ref="B21" r:id="rId21"/>
-    <hyperlink ref="B22" r:id="rId22"/>
-    <hyperlink ref="B23" r:id="rId23"/>
-    <hyperlink ref="B24" r:id="rId24"/>
-    <hyperlink ref="B25" r:id="rId25"/>
-    <hyperlink ref="B26" r:id="rId26"/>
-    <hyperlink ref="B27" r:id="rId27"/>
-    <hyperlink ref="B28" r:id="rId28"/>
-    <hyperlink ref="B29" r:id="rId29"/>
-    <hyperlink ref="B30" r:id="rId30"/>
-    <hyperlink ref="B31" r:id="rId31"/>
-    <hyperlink ref="B32" r:id="rId32"/>
-    <hyperlink ref="B33" r:id="rId33"/>
-    <hyperlink ref="B34" r:id="rId34"/>
-    <hyperlink ref="B35" r:id="rId35"/>
-    <hyperlink ref="B36" r:id="rId36"/>
-    <hyperlink ref="B37" r:id="rId37"/>
+    <hyperlink ref="B24" r:id="rId11"/>
+    <hyperlink ref="B35" r:id="rId12"/>
+    <hyperlink ref="B22" r:id="rId13"/>
+    <hyperlink ref="B17" r:id="rId14"/>
+    <hyperlink ref="B14" r:id="rId15"/>
+    <hyperlink ref="B27" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B3" r:id="rId18"/>
+    <hyperlink ref="B13" r:id="rId19"/>
+    <hyperlink ref="B8" r:id="rId20"/>
+    <hyperlink ref="B7" r:id="rId21"/>
+    <hyperlink ref="B5" r:id="rId22"/>
+    <hyperlink ref="B25" r:id="rId23"/>
+    <hyperlink ref="B9" r:id="rId24"/>
+    <hyperlink ref="B6" r:id="rId25"/>
+    <hyperlink ref="B28" r:id="rId26"/>
+    <hyperlink ref="B19" r:id="rId27"/>
+    <hyperlink ref="B31" r:id="rId28"/>
+    <hyperlink ref="B11" r:id="rId29"/>
+    <hyperlink ref="B20" r:id="rId30"/>
+    <hyperlink ref="B36" r:id="rId31"/>
+    <hyperlink ref="B30" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B33" r:id="rId34"/>
+    <hyperlink ref="B37" r:id="rId35"/>
+    <hyperlink ref="B32" r:id="rId36"/>
+    <hyperlink ref="B29" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
